--- a/spin-core/src/test/resources/ExcelDemo.xlsx
+++ b/spin-core/src/test/resources/ExcelDemo.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>客户*</t>
   </si>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>合众物流</t>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="M70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3018,6 +3022,11 @@
       <c r="S51" s="8"/>
       <c r="T51" s="12"/>
     </row>
+    <row r="75" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
